--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H2">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>49.63710160547335</v>
+        <v>1.091490115656667</v>
       </c>
       <c r="R2">
-        <v>446.7339144492601</v>
+        <v>9.823411040909999</v>
       </c>
       <c r="S2">
-        <v>0.006800298262299666</v>
+        <v>0.0002224008582538388</v>
       </c>
       <c r="T2">
-        <v>0.006800298262299666</v>
+        <v>0.0002224008582538387</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H3">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>741.5099056114249</v>
+        <v>138.0811539852066</v>
       </c>
       <c r="R3">
-        <v>6673.589150502824</v>
+        <v>1242.73038586686</v>
       </c>
       <c r="S3">
-        <v>0.1015870862623321</v>
+        <v>0.02813526821222282</v>
       </c>
       <c r="T3">
-        <v>0.1015870862623321</v>
+        <v>0.02813526821222282</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H4">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>94.68344414148044</v>
+        <v>26.29779684688834</v>
       </c>
       <c r="R4">
-        <v>852.150997273324</v>
+        <v>236.680171621995</v>
       </c>
       <c r="S4">
-        <v>0.01297166111312306</v>
+        <v>0.005358410951265804</v>
       </c>
       <c r="T4">
-        <v>0.01297166111312306</v>
+        <v>0.005358410951265802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>206.6923970857234</v>
+        <v>24.40733959722156</v>
       </c>
       <c r="R5">
-        <v>1860.23157377151</v>
+        <v>219.666056374994</v>
       </c>
       <c r="S5">
-        <v>0.02831692228737242</v>
+        <v>0.00497321340454763</v>
       </c>
       <c r="T5">
-        <v>0.02831692228737242</v>
+        <v>0.004973213404547629</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
-        <v>3087.699621783191</v>
+        <v>3087.699621783192</v>
       </c>
       <c r="R6">
-        <v>27789.29659604872</v>
+        <v>27789.29659604873</v>
       </c>
       <c r="S6">
-        <v>0.4230158025624981</v>
+        <v>0.6291463716109749</v>
       </c>
       <c r="T6">
-        <v>0.4230158025624981</v>
+        <v>0.6291463716109748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>394.2685491486637</v>
+        <v>588.0577836608149</v>
       </c>
       <c r="R7">
-        <v>3548.416942337974</v>
+        <v>5292.520052947334</v>
       </c>
       <c r="S7">
-        <v>0.05401491309797642</v>
+        <v>0.1198220248749869</v>
       </c>
       <c r="T7">
-        <v>0.05401491309797642</v>
+        <v>0.1198220248749869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H8">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>152.68081730647</v>
+        <v>6.874154185392221</v>
       </c>
       <c r="R8">
-        <v>1374.12735575823</v>
+        <v>61.86738766852999</v>
       </c>
       <c r="S8">
-        <v>0.02091731916315583</v>
+        <v>0.001400670302617147</v>
       </c>
       <c r="T8">
-        <v>0.02091731916315583</v>
+        <v>0.001400670302617147</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H9">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>2280.841039620894</v>
+        <v>869.628711223042</v>
       </c>
       <c r="R9">
-        <v>20527.56935658805</v>
+        <v>7826.658401007379</v>
       </c>
       <c r="S9">
-        <v>0.3124759274140503</v>
+        <v>0.1771946158411398</v>
       </c>
       <c r="T9">
-        <v>0.3124759274140503</v>
+        <v>0.1771946158411397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H10">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>291.2407285948113</v>
+        <v>165.6223063026761</v>
       </c>
       <c r="R10">
-        <v>2621.166557353302</v>
+        <v>1490.600756724085</v>
       </c>
       <c r="S10">
-        <v>0.03990006983719204</v>
+        <v>0.03374702394399128</v>
       </c>
       <c r="T10">
-        <v>0.03990006983719204</v>
+        <v>0.03374702394399127</v>
       </c>
     </row>
   </sheetData>
